--- a/biology/Botanique/Leuenbergeria/Leuenbergeria.xlsx
+++ b/biology/Botanique/Leuenbergeria/Leuenbergeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leuenbergeria est un genre de cactus, plante de la famille des Cactaceae. C'est le seul genre de la sous-famille des Leuenbergerioideae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Leuenbergeria aureiflora
 Leuenbergeria bleo
@@ -548,7 +562,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mayta L. &amp; Molinari-Novoa E.A., 2015. L'intégration du genre Leuenbergeria Lodé dans sa propre sous-famille, Leuenbergerioideae Mayta &amp; Mol. Nov., subfam. nov. Succulentopi 12: 6-7.
 Joël Lodé, 2012. Leuenbergeria, un nouveau genre de cactées. Cactus-Aventures International 97: 26–27.</t>
